--- a/Upper Level BCIO/inputs/BCIO_Upper_Level_Merged.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Level_Merged.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -345,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,51 +552,52 @@
           <t>REL 'difference between' [BCIOR:000007]</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>REL 'happens during' [RO:0002092]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:007000</t>
+          <t>BCIO:005000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Behaviour change intervention content</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A planned process that is part of a BCI and is intended to be causally active in influencing the outcome behaviour.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BCI content</t>
+          <t>BCI context</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention population;behaviour change intervention setting</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention dose</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Behaviour change technique</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -544,50 +613,51 @@
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:005000</t>
+          <t>BCIO:021000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Behaviour change intervention context</t>
+          <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>report</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
+          <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BCI context</t>
+          <t>BCI evaluation report</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention population;Behaviour change intervention setting</t>
-        </is>
-      </c>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -600,36 +670,32 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:021000</t>
+          <t>BCIO:024000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation report</t>
+          <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A report that is a description of a BCI evaluation study.</t>
+          <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BCI evaluation report</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -639,11 +705,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -656,31 +718,32 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:024000</t>
+          <t>BCIO:020000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation study plan</t>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A plan for a BCI evaluation study.</t>
+          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BCI evaluation study plan</t>
+          <t>BCI study risk of bias or error</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -690,7 +753,11 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -703,31 +770,32 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:020000</t>
+          <t>BCIO:006000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation study risk of bias or error</t>
+          <t>behaviour change intervention mechanism of action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
+          <t xml:space="preserve">A process that is causally active in the relationship between a BCI scenario and its outcome behaviour. </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BCI study risk of bias or error</t>
+          <t>BCI mechanism of action</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -737,11 +805,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -754,31 +818,32 @@
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:006000</t>
+          <t>BCIO:026000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mechanism of action</t>
+          <t>behaviour change intervention physical setting</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">A process that is causally active in the relationship between a BCI and its outcome behaviour. </t>
+          <t>A physical environment in which a BCI is delivered.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BCI mechanism of action</t>
+          <t>BCI physical setting</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -801,53 +866,71 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:026000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Behaviour change intervention physical setting</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A physical environment in which a BCI is delivered.</t>
+          <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BCI physical setting</t>
+          <t>BCI scenario</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>outcome behaviour;behaviour change intervention;behaviour change intervention engagement;behaviour change intervention mechanism of action</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario plan</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>behaviour change intervention context</t>
+        </is>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -857,7 +940,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Behaviour change intervention source</t>
+          <t>behaviour change intervention source</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -900,6 +983,7 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -909,7 +993,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Evaluation finding</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -923,11 +1007,6 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -948,6 +1027,7 @@
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -957,12 +1037,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation finding</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Evaluation finding</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -987,7 +1067,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation study</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -999,6 +1079,7 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1008,12 +1089,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Behaviour change intervention outcome estimate</t>
+          <t>behaviour change intervention outcome estimate</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation finding</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1040,7 +1121,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Outcome behaviour</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -1055,26 +1136,23 @@
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Intervention evaluation study</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+          <t>Individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1098,33 +1176,30 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:018000</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation study</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Intervention evaluation study</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>An intervention evaluation study of a BCI scenario.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BCI evaluation study</t>
-        </is>
-      </c>
+          <t>Human behavior that is an intervention outcome.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1136,63 +1211,39 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention evaluation study plan</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention study sample</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention study investigator</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:016000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Behaviour change intervention comparison evaluation study</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation study</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>BCI comparison evaluation study</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
-        </is>
-      </c>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1211,35 +1262,36 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:018000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>An attribute of a process</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>An intervention evaluation study of a BCI scenario.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BCI evaluation study</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1251,45 +1303,62 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study plan</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study sample</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:022000</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Behaviour change intervention dose</t>
+          <t>behaviour change intervention comparison evaluation study</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>An attribute of BCI content that is its amount or intensity.</t>
+          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BCI dose</t>
+          <t>BCI comparison evaluation study</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1310,35 +1379,36 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Behaviour change intervention mode of delivery</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BCI mode of delivery</t>
-        </is>
-      </c>
+          <t>An attribute of a process</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1359,36 +1429,37 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:009000</t>
+          <t>BCIO:022000</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Behaviour change intervention schedule of delivery</t>
+          <t>behaviour change intervention dose</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that involves its temporal organisation.</t>
+          <t>An attribute of BCI content that is its amount or intensity.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BCI schedule of delivery</t>
+          <t>BCI dose</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Includes the start and end of the BCI and its parts.</t>
+          <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1411,36 +1482,32 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:044000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Behaviour change intervention style of delivery</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BCI style of delivery</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>An example is cold and distant vs. warm and accepting.</t>
+          <t>BCI mode of delivery</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1463,36 +1530,37 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:032000</t>
+          <t>BCIO:009000</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Behaviour change intervention tailoring</t>
+          <t>behaviour change intervention schedule of delivery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Process attribute</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
+          <t>An attribute of a BCI that involves its temporal organisation.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BCI tailoring</t>
+          <t>BCI schedule of delivery</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
+          <t>Includes the start and end of the BCI and its parts.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1515,32 +1583,37 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:044000</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>behaviour change intervention style of delivery</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>An attribute of BCI delivery that encompasses the characteristics of how BCI content is communicated.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BCI style of delivery</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
+          <t>An example is cold and distant vs. warm and accepting.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1563,51 +1636,44 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:032000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Behaviour change intervention</t>
+          <t>behaviour change intervention tailoring</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>BCI tailoring</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Involves use of products, services, activities, rules or environmental objects.</t>
+          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention tailoring</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention content;Behaviour change intervention delivery</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1623,31 +1689,33 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation finding</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Evaluation finding</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BCI evaluation finding</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Examples of interventions are putting health warnings on cigarette packets, providing free stop smoking services and banning smoking in public places.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1660,11 +1728,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -1674,53 +1738,58 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:017000</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Behaviour change intervention effect estimate</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Behaviour change intervention evaluation finding</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BCI effect estimate</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
+          <t>Involves use of products, services, activities, rules or environmental objects.</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>behaviour change intervention tailoring</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content;behaviour change intervention delivery</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention comparison evaluation study</t>
-        </is>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -1729,31 +1798,28 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention outcome estimate</t>
-        </is>
-      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Individual human activity</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1777,43 +1843,52 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Behaviour change intervention engagement</t>
+          <t>behaviour change intervention content</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Individual human activity</t>
+          <t>intervention content</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BCI engagement</t>
+          <t>BCI content</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Includes mental activities and behaviours.</t>
+          <t xml:space="preserve">Consists of BCTs that can be classified using a BCT taxonomy. </t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>behaviour change intervention dose</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -1829,26 +1904,27 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:045000</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Individual human behaviour</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Individual human activity</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A process by which intervention content is delivered.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1872,33 +1948,42 @@
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:041000</t>
+          <t>BCIO:008000</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Human population</t>
+          <t>behaviour change intervention delivery</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>intervention delivery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>An aggregate of people</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>An intervention delivery in which the intervention is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BCI delivery</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>behaviour change intervention mode of delivery;behaviour change intervention schedule of delivery;behaviour change intervention style of delivery</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1910,36 +1995,41 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>behaviour change intervention source</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Behaviour change intervention population</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Human population</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BCI population</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1952,7 +2042,11 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
@@ -1962,31 +2056,37 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:029000</t>
+          <t>BCIO:017000</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Behaviour change intervention social setting</t>
+          <t>behaviour change intervention effect estimate</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Human population</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>An aggregate of people with whom a BCI population interacts.</t>
+          <t xml:space="preserve">A BCI evaluation finding that characterises the difference between BCI outcome estimates of two BCI scenarios. </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BCI social setting</t>
+          <t>BCI effect estimate</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>This includes the following subclasses: 1) BCI effect estimate type -the type of statistic used to represent the difference (e.g. odds ratio, mean difference), 2) BCI effect estimate value – the datum that represents the difference (e.g. 1.35), 3)  BCI effect estimate uncertainty type – the type of statistic used to represent the range of uncertainty of the value (e.g. 95% confidence interval see STATO), and 4) the BCI effect estimate uncertainty value  - the datum representing the uncertainty (e.g. 1.20-1.55).</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1999,7 +2099,11 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>behaviour change intervention comparison evaluation study</t>
+        </is>
+      </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2008,34 +2112,35 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>behaviour change intervention outcome estimate</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:031000</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Behaviour change intervention study sample</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Human population</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>BCI study sample</t>
-        </is>
-      </c>
+          <t>A process that is produced by a person.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2056,29 +2161,39 @@
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Human behaviour</t>
+          <t>behaviour change intervention engagement</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>Individual human activity that enables a BCI to influence the outcome behaviour.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BCI engagement</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Includes mental activities and behaviours.</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -2099,29 +2214,39 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Outcome behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Human behaviour</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Also referred to in definitions as human behaviour or just behaviour.</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2142,41 +2267,34 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:008000</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Behaviour change intervention delivery</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A part of a BCI that is the process by which BCI content is delivered.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>BCI delivery</t>
-        </is>
-      </c>
+          <t>An aggregate of people</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention mode of delivery;Behaviour change intervention schedule of delivery;Behaviour change intervention style of delivery</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2188,40 +2306,37 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention source</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:015000</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario report</t>
+          <t>behaviour change intervention population</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t xml:space="preserve">An aggregate of people who are exposed to a BCI. </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BCI scenario report</t>
+          <t>BCI population</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2231,11 +2346,7 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2248,90 +2359,80 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:029000</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario</t>
+          <t>behaviour change intervention social setting</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t>An aggregate of people with whom a BCI population interacts.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BCI scenario</t>
+          <t>BCI social setting</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Outcome behaviour;Behaviour change intervention;Behaviour change intervention engagement;Behaviour change intervention mechanism of action</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention scenario plan</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention context</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:031000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Behaviour change intervention scenario plan</t>
+          <t>behaviour change intervention study sample</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>A population whose behaviour is studied in a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BCI scenario plan</t>
+          <t>BCI study sample</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2354,47 +2455,43 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Behaviour change intervention setting</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BCI setting</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention physical setting;Behaviour change intervention social setting</t>
-        </is>
-      </c>
+          <t>BCI temporal context</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context event</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2410,36 +2507,32 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Behaviour change intervention study investigator</t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BCI study investigator</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+          <t>BCI temporal context event</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2462,31 +2555,32 @@
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Behaviour change technique</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BCT</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2509,29 +2603,34 @@
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Population behaviour</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>report</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>A report that describes a BCI scenario.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>BCI scenario report</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2539,7 +2638,11 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2552,35 +2655,44 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Intervention outcome</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BCI setting</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Includes as parts social setting and physical setting.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>behaviour change intervention physical setting;behaviour change intervention social setting</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2600,6 +2712,205 @@
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BCIO:030000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>BCI study investigator</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BCIO:033000</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BCIO:039000</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_Upper_Level_Merged.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_Upper_Level_Merged.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA47"/>
+  <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,43 +557,35 @@
           <t>REL 'happens during' [RO:0002092]</t>
         </is>
       </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>REL 'through' [BCIOR:000008]</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:005000</t>
+          <t>BCIO:050316</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>behaviour change intervention context</t>
+          <t>BCI selection criterion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>BCI context</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention population;behaviour change intervention setting</t>
-        </is>
-      </c>
+          <t>A criterion that is a characteristics of some population or setting that is used to include them in the BCI population.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -614,50 +606,51 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:021000</t>
+          <t>BCIO:005000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation report</t>
+          <t>behaviour change intervention context</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A report that is a description of a BCI evaluation study.</t>
+          <t>An aggregate of entities that are not dependent on the intervention but may influence the effect of a BCI on its outcome behaviour.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BCI evaluation report</t>
+          <t xml:space="preserve"> BCI context</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Includes as part BCI population and BCI setting. Use of the word ‘may’ conveys a non-zero probability given available information.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>behaviour change intervention population;behaviour change intervention setting</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -671,31 +664,37 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:024000</t>
+          <t>BCIO:021000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study plan</t>
+          <t>behaviour change intervention evaluation report</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>report</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A plan for a BCI evaluation study.</t>
+          <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BCI evaluation study plan</t>
+          <t>BCI evaluation report</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Includes entities that stand in direct relation to the study e.g. authors, findings, funding, aims.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -705,7 +704,11 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -719,31 +722,32 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:020000</t>
+          <t>BCIO:024000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study risk of bias or error</t>
+          <t>behaviour change intervention evaluation study plan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
+          <t>A plan for a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BCI study risk of bias or error</t>
+          <t>BCI evaluation study plan</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -753,11 +757,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -771,6 +771,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BCI mechanism of action</t>
+          <t>BCI mechanism of action; MOA; BCI MOA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -819,6 +820,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -867,6 +869,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -928,9 +931,10 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
-        </is>
-      </c>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -984,29 +988,34 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:035000</t>
+          <t>BCIO:047001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>behaviour change intervention temporal context event</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>behaviour change intervention temporal context</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A data item that is the output of an intervention evaluation study.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BCI temporal context event</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1028,33 +1037,30 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:023000</t>
+          <t>BCIO:035000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>evaluation finding</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BCI evaluation finding</t>
-        </is>
-      </c>
+          <t>A data item that is the output of an intervention evaluation study.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1065,11 +1071,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation study</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
@@ -1080,36 +1082,32 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:025000</t>
+          <t>BCIO:023000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>behaviour change intervention outcome estimate</t>
+          <t>behaviour change intervention evaluation finding</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation finding</t>
+          <t>evaluation finding</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+          <t>An evaluation finding that is the output of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BCI outcome estimate</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+          <t>BCI evaluation finding</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1119,14 +1117,14 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>outcome behaviour</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -1137,25 +1135,39 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:025000</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>human behaviour</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>behaviour change intervention outcome estimate</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation finding</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Individual human behaviour or population behaviour</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>A BCI evaluation finding that is about an outcome behaviour.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BCI outcome estimate</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>This includes as subclasses 1) type of outcome estimate (e.g. mean, percentage), 2) value of outcome estimate (e.g. 1.5 cigs per day, 23%), 3) uncertainty estimate type (e.g. 95% CI), and 4) uncertainty estimate value (e.g. 12.0%-45.0%).</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1163,7 +1175,11 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>outcome behaviour</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1177,26 +1193,27 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:038000</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>intervention evaluation study</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>research study</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Human behavior that is an intervention outcome.</t>
+          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1221,29 +1238,34 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:038000</t>
+          <t>BCIO:018000</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>intervention evaluation study</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A research study that aims to assess attributes of an intervention with regards to their positive or negative value.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>An intervention evaluation study of a BCI scenario.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BCI evaluation study</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1255,41 +1277,63 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study plan</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study sample</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>behaviour change intervention study investigator</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:018000</t>
+          <t>BCIO:016000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>behaviour change intervention comparison evaluation study</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>behaviour change intervention evaluation study</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>intervention evaluation study</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>An intervention evaluation study of a BCI scenario.</t>
+          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BCI evaluation study</t>
+          <t>BCI comparison evaluation study</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1303,62 +1347,47 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation study plan</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study sample</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>behaviour change intervention study investigator</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>behaviour change intervention scenario</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:016000</t>
+          <t>BCIO:043000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>behaviour change intervention comparison evaluation study</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>behaviour change intervention evaluation study</t>
+          <t>process profile</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">A BCI evaluation study that involves comparison between two or more BCI scenarios to produce one or more BCI effect estimates. </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>BCI comparison evaluation study</t>
-        </is>
-      </c>
+          <t>A process profile that is an attribute of a process.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Comparison involves identifying differences between the entities in the scenarios.</t>
+          <t>This is intended to provide a user-friendly way of representing the way in which processes are manifest. This is somewhat similar to, but not the same as, the class 'specifically dependent continuant' in Basic Formal Ontology which provides a way of representing features of material entities such as age and size. It is formally equivalent to process profile in Basic Formal Ontology.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1379,36 +1408,37 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:043000</t>
+          <t>BCIO:050315</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>BCI attribute</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>An attribute of a process</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>A process attribute whose bearer is a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>behaviour change intervention attribute</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1430,6 +1460,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1449,17 +1480,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>An attribute of BCI content that is its amount or intensity.</t>
+          <t>An attribute of BCI content that is its amount.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BCI dose</t>
+          <t xml:space="preserve"> BCI dose</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>This is a disjunctive class that is not currently fully defined because specific BCI content instances may vary in intensity and amount in different ways.</t>
+          <t xml:space="preserve">The dose of an active ingredient in a pharmacological intervention; the number of behaviour change techniques included in an intervention. </t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1483,6 +1514,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1507,7 +1539,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BCI mode of delivery</t>
+          <t>BCI mode of delivery; BCI MOD; MOD</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1531,6 +1563,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1584,6 +1617,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1637,6 +1671,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1656,7 +1691,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>An attribute of a BCI that relates to selection or modification of the BCI according to attributes of members of the BCI population or BCI context.</t>
+          <t>A process attribute of a behaviour change intervention or part of a behaviour change intervention in which the content or delivery of the intervention for a given member of the BCI population varies according to their characteristics or setting.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1666,7 +1701,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>It includes static tailoring that is based on characteristics of a member of a BCI population or BCI context at a single point in time and dynamic tailoring that can change as a function of characteristics assessed at multiple time points.</t>
+          <t>Tailoring the dose of pharmacotherapy for smoking cessation to the prior level of nicotine dependence of the smoker (static) or to the smokers' current strength of urges to smoke during a quit attempt (dynamic).</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1690,6 +1725,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1739,6 +1775,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1800,6 +1837,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1882,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1905,6 +1944,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1949,6 +1989,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1973,7 +2014,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BCI delivery</t>
+          <t xml:space="preserve"> BCI delivery</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2005,6 +2046,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2057,6 +2099,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2081,7 +2124,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BCI effect estimate</t>
+          <t xml:space="preserve"> BCI effect estimate</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2118,6 +2161,7 @@
         </is>
       </c>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2162,6 +2206,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2215,6 +2260,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2268,6 +2314,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2312,6 +2359,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2360,6 +2408,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2408,6 +2457,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2456,16 +2506,17 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:047000</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2475,23 +2526,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BCI temporal context</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>behaviour change intervention temporal context event</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
@@ -2508,33 +2555,30 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:047001</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context event</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>behaviour change intervention temporal context</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">An event which occurs during a behaviour change intervention temporal context. </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>BCI temporal context event</t>
-        </is>
-      </c>
+          <t>Human behavior that is an intervention outcome.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2556,31 +2600,32 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:028000</t>
+          <t>BCIO:020000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario plan</t>
+          <t>behaviour change intervention evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A plan that is realized in a BCI scenario process.</t>
+          <t>An information content entity that is about the likelihood of the BCI evaluation finding misrepresenting the outcome behaviour.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BCI scenario plan</t>
+          <t>BCI evaluation study risk of bias or error</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2590,7 +2635,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation study</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -2604,31 +2653,32 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>BCIO:028000</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report</t>
+          <t>behaviour change intervention scenario plan</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A plan that is realized in a BCI scenario process.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BCI scenario report</t>
+          <t>BCI scenario plan</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2638,11 +2688,7 @@
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -2656,50 +2702,46 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:014000</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>behaviour change intervention setting</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>report</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BCI setting</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Includes as parts social setting and physical setting.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>behaviour change intervention physical setting;behaviour change intervention social setting</t>
-        </is>
-      </c>
+          <t>BCI scenario report</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>behaviour change intervention scenario</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -2713,39 +2755,44 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:030000</t>
+          <t>BCIO:014000</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>behaviour change intervention study investigator</t>
+          <t>behaviour change intervention setting</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
+          <t xml:space="preserve">An aggregate of entities that form the environment in which a BCI is provided. </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BCI study investigator</t>
+          <t>BCI setting</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>Includes as parts social setting and physical setting.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>behaviour change intervention physical setting;behaviour change intervention social setting</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2766,31 +2813,37 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:030000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>behaviour change intervention study investigator</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A role played by a person that contributes substantively to production or reporting of a BCI evaluation study.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BCT</t>
+          <t>BCI study investigator</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What counts as substantively is subject to judgement. The level and nature of the contribution can be defined using the CReDiT taxonomy (https://casrai.org/credit/). </t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2814,16 +2867,17 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:047000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t xml:space="preserve">behaviour change intervention temporal context </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2833,20 +2887,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+          <t>The aggregate of processes taking place at the same time as a behaviour change intervention.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BCI temporal context</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>behaviour change intervention temporal context event</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -2863,31 +2920,32 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>An aggregate of individual human behaviours of members of a population.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>BCT</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2911,6 +2969,106 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BCIO:039000</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>intervention outcome</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A process that is influenced by an intervention.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Includes individual human behaviour, mental activity and physiological activity. Also includes undesirable outcomes, such as treatment side effects, and unintended negative consequences of the intervention. </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BCIO:034000</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>population behaviour</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>An aggregate of individual human behaviours of members of a population.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>human behaviour</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
